--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43097,6 +43097,41 @@
         <v>14100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>8200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43132,6 +43132,41 @@
         <v>8200</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>25500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43167,6 +43167,41 @@
         <v>25500</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43202,6 +43202,41 @@
         <v>1800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43237,6 +43237,41 @@
         <v>3100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43272,6 +43272,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>19500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43307,6 +43307,41 @@
         <v>19500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43342,6 +43342,41 @@
         <v>400</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>8800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43377,6 +43377,41 @@
         <v>8800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>41200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43412,6 +43412,41 @@
         <v>41200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>62500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43447,6 +43447,41 @@
         <v>62500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>47500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43482,6 +43482,41 @@
         <v>47500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>34500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43517,6 +43517,76 @@
         <v>34500</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>31800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43587,6 +43587,76 @@
         <v>31800</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>25800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43657,6 +43657,41 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>16400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43692,6 +43692,41 @@
         <v>16400</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>46300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43727,6 +43727,41 @@
         <v>46300</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>63100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43762,6 +43762,41 @@
         <v>63100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>83400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43797,6 +43797,76 @@
         <v>83400</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>19600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43867,6 +43867,41 @@
         <v>19600</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>29500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43902,6 +43902,41 @@
         <v>29500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>216400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2622"/>
+  <dimension ref="A1:I2623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92272,6 +92272,41 @@
         <v>216400</v>
       </c>
     </row>
+    <row r="2623">
+      <c r="A2623" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2623" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2623" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D2623" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E2623" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="F2623" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="G2623" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="H2623" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="I2623" t="n">
+        <v>202900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2623"/>
+  <dimension ref="A1:I2624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92307,6 +92307,41 @@
         <v>202900</v>
       </c>
     </row>
+    <row r="2624">
+      <c r="A2624" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2624" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2624" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D2624" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E2624" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F2624" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="G2624" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H2624" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="I2624" t="n">
+        <v>167000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2624"/>
+  <dimension ref="A1:I2625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92342,6 +92342,41 @@
         <v>167000</v>
       </c>
     </row>
+    <row r="2625">
+      <c r="A2625" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2625" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2625" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D2625" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E2625" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="F2625" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="G2625" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="H2625" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="I2625" t="n">
+        <v>92000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2625"/>
+  <dimension ref="A1:I2626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92377,6 +92377,41 @@
         <v>92000</v>
       </c>
     </row>
+    <row r="2626">
+      <c r="A2626" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2626" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2626" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D2626" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E2626" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="F2626" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="G2626" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H2626" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I2626" t="n">
+        <v>13600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2626"/>
+  <dimension ref="A1:I2627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92412,6 +92412,41 @@
         <v>13600</v>
       </c>
     </row>
+    <row r="2627">
+      <c r="A2627" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2627" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2627" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D2627" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E2627" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F2627" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G2627" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H2627" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I2627" t="n">
+        <v>47600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2627"/>
+  <dimension ref="A1:I2628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92447,6 +92447,41 @@
         <v>47600</v>
       </c>
     </row>
+    <row r="2628">
+      <c r="A2628" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2628" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2628" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D2628" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E2628" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F2628" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="G2628" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H2628" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I2628" t="n">
+        <v>7400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2628"/>
+  <dimension ref="A1:I2629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92482,6 +92482,41 @@
         <v>7400</v>
       </c>
     </row>
+    <row r="2629">
+      <c r="A2629" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2629" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2629" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D2629" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E2629" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F2629" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G2629" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="H2629" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I2629" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2629"/>
+  <dimension ref="A1:I2630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92517,6 +92517,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="2630">
+      <c r="A2630" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2630" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2630" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D2630" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E2630" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F2630" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G2630" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H2630" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I2630" t="n">
+        <v>45600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2630"/>
+  <dimension ref="A1:I2631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92552,6 +92552,41 @@
         <v>45600</v>
       </c>
     </row>
+    <row r="2631">
+      <c r="A2631" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2631" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2631" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D2631" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E2631" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F2631" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="G2631" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H2631" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I2631" t="n">
+        <v>15500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2631"/>
+  <dimension ref="A1:I2632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92587,6 +92587,41 @@
         <v>15500</v>
       </c>
     </row>
+    <row r="2632">
+      <c r="A2632" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2632" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2632" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D2632" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E2632" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F2632" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="G2632" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H2632" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="I2632" t="n">
+        <v>11200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2632"/>
+  <dimension ref="A1:I2633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92622,6 +92622,41 @@
         <v>11200</v>
       </c>
     </row>
+    <row r="2633">
+      <c r="A2633" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2633" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2633" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D2633" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E2633" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F2633" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="G2633" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="H2633" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I2633" t="n">
+        <v>23500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2633"/>
+  <dimension ref="A1:I2634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92657,6 +92657,41 @@
         <v>23500</v>
       </c>
     </row>
+    <row r="2634">
+      <c r="A2634" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2634" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2634" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D2634" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E2634" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F2634" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="G2634" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H2634" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="I2634" t="n">
+        <v>17200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2634"/>
+  <dimension ref="A1:I2635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92692,6 +92692,41 @@
         <v>17200</v>
       </c>
     </row>
+    <row r="2635">
+      <c r="A2635" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2635" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2635" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D2635" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E2635" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F2635" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G2635" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H2635" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I2635" t="n">
+        <v>32100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2635"/>
+  <dimension ref="A1:I2636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92727,6 +92727,41 @@
         <v>32100</v>
       </c>
     </row>
+    <row r="2636">
+      <c r="A2636" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2636" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2636" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D2636" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E2636" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F2636" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="G2636" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H2636" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="I2636" t="n">
+        <v>3100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6351.xlsx
+++ b/data/6351.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2636"/>
+  <dimension ref="A1:I2637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92762,6 +92762,41 @@
         <v>3100</v>
       </c>
     </row>
+    <row r="2637">
+      <c r="A2637" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2637" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2637" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="D2637" t="inlineStr">
+        <is>
+          <t>AMWAY</t>
+        </is>
+      </c>
+      <c r="E2637" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F2637" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G2637" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="H2637" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="I2637" t="n">
+        <v>10900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
